--- a/schBusMIS/docs/模板接口.xlsx
+++ b/schBusMIS/docs/模板接口.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\schBusMIS\schBusMIS\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="11835" windowHeight="6270"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>2BqUTvHUOZreolc2SDtFRpF6ESbIqjObH2OvVO6QDKc</t>
   </si>
@@ -51,31 +56,41 @@
     <t>7gNUN4ACrn0bogzgtnSQHWfjTMvCR57J7iaR05_OnqU</t>
   </si>
   <si>
+    <t>{{first.DATA}} 学生姓名：{{keyword1.DATA}} 通知时间：{{keyword2.DATA}} {{remark.DATA}}</t>
+  </si>
+  <si>
+    <t>adEMn2SjI_B3R_ckc9oqfDR7DPQ_t7znxiJxi9pSmoA</t>
+  </si>
+  <si>
+    <t>未刷卡通知</t>
+  </si>
+  <si>
+    <t>{{first.DATA}} 学生姓名：{{keyword1.DATA}} 通知时间：{{keyword2.DATA}} 通知地点：{{keyword3.DATA}} {{remark.DATA}}</t>
+  </si>
+  <si>
+    <t>uocevTOp3GEooEc6AK0Me1Fk1shv4y8Uk0Gn5lIi9f8</t>
+  </si>
+  <si>
+    <t>上车准备提醒</t>
+  </si>
+  <si>
     <t>下车准备提醒</t>
-  </si>
-  <si>
-    <t>{{first.DATA}} 学生姓名：{{keyword1.DATA}} 通知时间：{{keyword2.DATA}} {{remark.DATA}}</t>
-  </si>
-  <si>
-    <t>adEMn2SjI_B3R_ckc9oqfDR7DPQ_t7znxiJxi9pSmoA</t>
-  </si>
-  <si>
-    <t>未刷卡通知</t>
-  </si>
-  <si>
-    <t>{{first.DATA}} 学生姓名：{{keyword1.DATA}} 通知时间：{{keyword2.DATA}} 通知地点：{{keyword3.DATA}} {{remark.DATA}}</t>
-  </si>
-  <si>
-    <t>uocevTOp3GEooEc6AK0Me1Fk1shv4y8Uk0Gn5lIi9f8</t>
-  </si>
-  <si>
-    <t>上车准备提醒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>g8bpcdUrhfpl-XTXz7VPiIFFG2b63ET-3dCOIruOz7k</t>
+  </si>
+  <si>
+    <t>超出电子围栏</t>
+  </si>
+  <si>
+    <t>{{first.DATA}} 班级名称：{{keyword1.DATA}} 学生姓名：{{keyword2.DATA}} 超出围栏(km)：{{keyword3.DATA}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -155,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,10 +195,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -191,12 +209,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -238,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,9 +292,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +344,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -555,10 +610,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>3</v>
@@ -569,32 +624,46 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/schBusMIS/docs/模板接口.xlsx
+++ b/schBusMIS/docs/模板接口.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>2BqUTvHUOZreolc2SDtFRpF6ESbIqjObH2OvVO6QDKc</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>{{first.DATA}} 班级名称：{{keyword1.DATA}} 学生姓名：{{keyword2.DATA}} 超出围栏(km)：{{keyword3.DATA}}</t>
+  </si>
+  <si>
+    <t>76T6E2RIVBE5soReYdsb8AmiocI0UqqLp2MTKzErdy8</t>
+  </si>
+  <si>
+    <t>设备异常</t>
+  </si>
+  <si>
+    <t>{{first.DATA}} 年级班级：{{keyword1.DATA}} 学生姓名：{{keyword2.DATA}}</t>
   </si>
 </sst>
 </file>
@@ -170,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +205,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -537,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -665,6 +677,23 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -673,9 +702,10 @@
     <hyperlink ref="E3" r:id="rId3" display="javascript:void(0);"/>
     <hyperlink ref="E4" r:id="rId4" display="javascript:void(0);"/>
     <hyperlink ref="E5" r:id="rId5" display="javascript:void(0);"/>
+    <hyperlink ref="E8" r:id="rId6" display="javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
